--- a/slides/BSP23_Gantt.xlsx
+++ b/slides/BSP23_Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="0" windowWidth="16820" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Maschine 1</t>
   </si>
@@ -29,12 +29,24 @@
   <si>
     <t>Maschine 3</t>
   </si>
+  <si>
+    <t>Ohne Puffer, Ohne Störung</t>
+  </si>
+  <si>
+    <t>Ohne Puffer mit Störungen</t>
+  </si>
+  <si>
+    <t>Mit Puffer und Störungen</t>
+  </si>
+  <si>
+    <t>Puffer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,8 +70,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +125,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -118,7 +155,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -160,8 +197,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -171,8 +226,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="59">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -193,6 +252,15 @@
     <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -213,6 +281,15 @@
     <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R9"/>
+  <dimension ref="A2:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -554,7 +631,12 @@
     <col min="2" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17">
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -575,7 +657,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -596,7 +678,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -617,56 +699,156 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="1"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="12:17">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="12:17">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="12:17">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="12:17">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/slides/BSP23_Gantt.xlsx
+++ b/slides/BSP23_Gantt.xlsx
@@ -39,7 +39,7 @@
     <t>Mit Puffer und Störungen</t>
   </si>
   <si>
-    <t>Puffer</t>
+    <t>Pufferlager</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,8 +154,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,23 +268,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="73">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -261,6 +341,13 @@
     <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -290,6 +377,13 @@
     <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,236 +713,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U20"/>
+  <dimension ref="B3:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="18" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="19" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="3" spans="2:23">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="1"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="12:17">
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="12:17">
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="12:17">
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="12:17">
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="C17" s="24"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="C18" s="24"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="C19" s="24"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="C20" s="24"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="7"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/slides/BSP23_Gantt.xlsx
+++ b/slides/BSP23_Gantt.xlsx
@@ -208,8 +208,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -348,6 +350,7 @@
     <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -384,6 +387,7 @@
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,13 +720,15 @@
   <dimension ref="B3:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="A2" sqref="A2:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:23">
